--- a/Generate/Копия Отчет2.xlsx
+++ b/Generate/Копия Отчет2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="список бригад" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Выпуск!$A$1:$R$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Выпуск!$A$1:$R$187</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
@@ -34,7 +34,7 @@
     <author>Алексей Э. Иоселевский</author>
   </authors>
   <commentList>
-    <comment ref="J186" authorId="0">
+    <comment ref="J187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="151">
   <si>
     <t>ИТОГИ</t>
   </si>
@@ -247,42 +247,18 @@
     <t>продолжение на следующий день</t>
   </si>
   <si>
-    <t>ЭСТЕЛЬ</t>
-  </si>
-  <si>
-    <t>С/П ЭСТЕЛЬ 6</t>
-  </si>
-  <si>
-    <t>V-1</t>
-  </si>
-  <si>
     <t>бальзам (белый)</t>
   </si>
   <si>
-    <t>С/П BALS ESTEL</t>
-  </si>
-  <si>
-    <t>5C0</t>
-  </si>
-  <si>
-    <t>V-3</t>
-  </si>
-  <si>
     <t>LOVE</t>
   </si>
   <si>
-    <t>наклейка / маркировка коробочек</t>
-  </si>
-  <si>
     <t>811B0</t>
   </si>
   <si>
     <t>по продукту</t>
   </si>
   <si>
-    <t>LOVE TON</t>
-  </si>
-  <si>
     <t>бальзам</t>
   </si>
   <si>
@@ -292,55 +268,127 @@
     <t>KIKI/B1</t>
   </si>
   <si>
-    <t>86C0</t>
-  </si>
-  <si>
-    <t>маска (цветная)</t>
-  </si>
-  <si>
     <t xml:space="preserve">HC LUXURY BLOND </t>
   </si>
   <si>
-    <t>HC/B/M2</t>
-  </si>
-  <si>
-    <t>92C0</t>
-  </si>
-  <si>
-    <t>93C0</t>
-  </si>
-  <si>
     <t>С/П LOVE 6</t>
   </si>
   <si>
-    <t>3C0</t>
-  </si>
-  <si>
     <t>V-4</t>
   </si>
   <si>
-    <t>NEWTONE</t>
-  </si>
-  <si>
-    <t>упаковка</t>
-  </si>
-  <si>
-    <t>ПРОЧИЕ ПРОДУКТЫ</t>
-  </si>
-  <si>
-    <t>ND/1000</t>
-  </si>
-  <si>
-    <t>217C0</t>
-  </si>
-  <si>
-    <t>счетчик не сбрасывать! (продолжение пред партии), по продукту фасуем через ДОП/1000, по продукту</t>
-  </si>
-  <si>
-    <t>139C0</t>
-  </si>
-  <si>
-    <t>фасуем через ДОП/1000, по продукту, по окончании переходим на конвейер №107</t>
+    <t>PRINCESS ESSEX</t>
+  </si>
+  <si>
+    <t>P/03/60</t>
+  </si>
+  <si>
+    <t>146C0</t>
+  </si>
+  <si>
+    <t>маска</t>
+  </si>
+  <si>
+    <t>207C0</t>
+  </si>
+  <si>
+    <t>HC LUXURY VOLUTE</t>
+  </si>
+  <si>
+    <t>202C0</t>
+  </si>
+  <si>
+    <t>упаковка (пудра)</t>
+  </si>
+  <si>
+    <t>DE LUXE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL/P30 </t>
+  </si>
+  <si>
+    <t>856L9</t>
+  </si>
+  <si>
+    <t>140C0</t>
+  </si>
+  <si>
+    <t>VEDMA</t>
+  </si>
+  <si>
+    <t>VED/B1</t>
+  </si>
+  <si>
+    <t>крем</t>
+  </si>
+  <si>
+    <t>HC/LV/C</t>
+  </si>
+  <si>
+    <t>по пакетам</t>
+  </si>
+  <si>
+    <t>625A0</t>
+  </si>
+  <si>
+    <t>с/п в старой плёнке укладываем в боксы старого дизайна!!! с/п в новой плёнке - в новые боксы!, продолжение на следующий день</t>
+  </si>
+  <si>
+    <t>шампунь</t>
+  </si>
+  <si>
+    <t>HC LUXURY VOLUTE 10 мл</t>
+  </si>
+  <si>
+    <t>С/П HC/LV/S10</t>
+  </si>
+  <si>
+    <t>203C0</t>
+  </si>
+  <si>
+    <t>145C0</t>
+  </si>
+  <si>
+    <t>счетчик не сбрасывать! (продолжение пред партии), по продукту</t>
+  </si>
+  <si>
+    <t>счетчик не сбрасывать! (продолжение пред партии), по флаконам</t>
+  </si>
+  <si>
+    <t>шампунь (белый)</t>
+  </si>
+  <si>
+    <t>HC/B/S1</t>
+  </si>
+  <si>
+    <t>205C0</t>
+  </si>
+  <si>
+    <t>HC LUXURY HAIR</t>
+  </si>
+  <si>
+    <t>HC/H/B</t>
+  </si>
+  <si>
+    <t>206C0</t>
+  </si>
+  <si>
+    <t>по флаконам</t>
+  </si>
+  <si>
+    <t>обесцвечивающая паста</t>
+  </si>
+  <si>
+    <t>WHITETOUCH HC</t>
+  </si>
+  <si>
+    <t>HC333/BC</t>
+  </si>
+  <si>
+    <t>фасуем через ДОП/1000, счетчик не сбрасывать! (продолжение пред партии), по продукту</t>
+  </si>
+  <si>
+    <t>201C0</t>
   </si>
   <si>
     <t>шампунь (б/цв)</t>
@@ -352,139 +400,124 @@
     <t>AH/SH1000</t>
   </si>
   <si>
-    <t>141C0</t>
-  </si>
-  <si>
-    <t>142C0</t>
-  </si>
-  <si>
-    <t>143C0</t>
-  </si>
-  <si>
-    <t>фасуем по окончании работ на конвейерах №№102-118, по продукту</t>
-  </si>
-  <si>
-    <t>CELEBRITY (10)</t>
-  </si>
-  <si>
-    <t>С/П BALS CELEB</t>
-  </si>
-  <si>
-    <t>144C0</t>
-  </si>
-  <si>
-    <t>PRINCESS ESSEX</t>
-  </si>
-  <si>
-    <t>P/03/60</t>
-  </si>
-  <si>
-    <t>146C0</t>
+    <t>248C0</t>
+  </si>
+  <si>
+    <t>249C0</t>
+  </si>
+  <si>
+    <t>фасуем по окончании работ на конвейере №121, счетчик не сбрасывать! (продолжение пред партии), по продукту</t>
+  </si>
+  <si>
+    <t>HC/B/M3</t>
+  </si>
+  <si>
+    <t>250C0</t>
+  </si>
+  <si>
+    <t>по банкам</t>
+  </si>
+  <si>
+    <t>HC/H/M</t>
+  </si>
+  <si>
+    <t>251C0</t>
+  </si>
+  <si>
+    <t>по плану (делайте ДОПы если время останется), продолжение на следующий день</t>
+  </si>
+  <si>
+    <t>HC LUXURY REPAIR 10 мл</t>
+  </si>
+  <si>
+    <t>С/П R/S10</t>
+  </si>
+  <si>
+    <t>252C0</t>
+  </si>
+  <si>
+    <t>HC LUXURY HAIR 10 мл</t>
+  </si>
+  <si>
+    <t>С/П HC/H/S10</t>
+  </si>
+  <si>
+    <t>305C0</t>
+  </si>
+  <si>
+    <t>HC LUXURY СOLOR 10 мл</t>
+  </si>
+  <si>
+    <t>С/П HC/C/B10</t>
+  </si>
+  <si>
+    <t>253C0</t>
+  </si>
+  <si>
+    <t>P/06/60</t>
+  </si>
+  <si>
+    <t>254C0</t>
   </si>
   <si>
     <t>наклейка флаконов</t>
   </si>
   <si>
-    <t>ALPHA HOMME</t>
-  </si>
-  <si>
-    <t>Н/ФЛ AH/DS</t>
-  </si>
-  <si>
-    <t>208C0</t>
-  </si>
-  <si>
-    <t>по плану</t>
-  </si>
-  <si>
-    <t>маска</t>
-  </si>
-  <si>
-    <t>CUREX COLOR SAVE</t>
-  </si>
-  <si>
-    <t>CU500/M4</t>
-  </si>
-  <si>
-    <t>147C0</t>
-  </si>
-  <si>
-    <t>AH.6</t>
-  </si>
-  <si>
-    <t>148C0</t>
-  </si>
-  <si>
-    <t>HC HYDROBALANCE</t>
-  </si>
-  <si>
-    <t>НС/HB/M</t>
-  </si>
-  <si>
-    <t>149C0</t>
-  </si>
-  <si>
-    <t>NT8/76</t>
-  </si>
-  <si>
-    <t>151C0</t>
-  </si>
-  <si>
-    <t>NT9/65</t>
-  </si>
-  <si>
-    <t>150C0</t>
-  </si>
-  <si>
-    <t>NT8/36</t>
-  </si>
-  <si>
-    <t>152C0</t>
-  </si>
-  <si>
-    <t>шампунь (цветной)</t>
-  </si>
-  <si>
-    <t>ALPHA HOMME CARBON</t>
-  </si>
-  <si>
-    <t>AHC/250</t>
-  </si>
-  <si>
-    <t>153C0</t>
-  </si>
-  <si>
-    <t>оттеночный бальзам (красный)</t>
-  </si>
-  <si>
-    <t>LT5/7</t>
-  </si>
-  <si>
-    <t>154C0</t>
-  </si>
-  <si>
-    <t>фасуем до перехода на конвейер №107, продолжение на следующий день</t>
-  </si>
-  <si>
-    <t>HAUTE COUTURE</t>
-  </si>
-  <si>
-    <t>МАР/КОР HC333/BC</t>
-  </si>
-  <si>
-    <t>207C0</t>
-  </si>
-  <si>
-    <t>МАР/КОР AH/DS</t>
-  </si>
-  <si>
-    <t>HC LUXURY VOLUTE</t>
-  </si>
-  <si>
-    <t>МАР/КОР HC/LV/C</t>
-  </si>
-  <si>
-    <t>202C0</t>
+    <t>AIREX</t>
+  </si>
+  <si>
+    <t>Н/ФЛ APU100</t>
+  </si>
+  <si>
+    <t>309C0</t>
+  </si>
+  <si>
+    <t>спрей (водный)</t>
+  </si>
+  <si>
+    <t>HC/LV/HM</t>
+  </si>
+  <si>
+    <t>258C0</t>
+  </si>
+  <si>
+    <t>HC LUXURY COLOR</t>
+  </si>
+  <si>
+    <t>HC/С/S</t>
+  </si>
+  <si>
+    <t>259C0</t>
+  </si>
+  <si>
+    <t>HC/B/B</t>
+  </si>
+  <si>
+    <t>257C0</t>
+  </si>
+  <si>
+    <t>HC/LV/S</t>
+  </si>
+  <si>
+    <t>256C0</t>
+  </si>
+  <si>
+    <t>счетчик не сбрасывать! (продолжение пред партии), по окончании переходим на конвейер №105</t>
+  </si>
+  <si>
+    <t>по пудре</t>
+  </si>
+  <si>
+    <t>24+1укладчик</t>
+  </si>
+  <si>
+    <t>по с/пакетам</t>
+  </si>
+  <si>
+    <t>по флаконам и по продукту</t>
+  </si>
+  <si>
+    <t>по банкам и по продукту</t>
   </si>
 </sst>
 </file>
@@ -729,7 +762,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,6 +808,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +918,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,6 +1132,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1508,11 +1553,11 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y186"/>
+  <dimension ref="A1:Y187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,21 +1597,21 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K1" s="46"/>
       <c r="L1" s="7"/>
       <c r="M1" s="47"/>
       <c r="N1" s="47"/>
       <c r="O1" s="9">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S1" s="31" t="s">
         <v>47</v>
@@ -1623,10 +1668,10 @@
         <v>57</v>
       </c>
       <c r="Q2" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S2" s="31"/>
       <c r="T2" s="55"/>
@@ -1656,10 +1701,10 @@
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S3" s="54"/>
       <c r="T3" s="55"/>
@@ -1674,19 +1719,19 @@
         <v>44616</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F4" s="59">
-        <v>542</v>
+        <v>2214</v>
       </c>
       <c r="G4" s="64">
         <v>110</v>
@@ -1695,32 +1740,22 @@
         <v>110</v>
       </c>
       <c r="I4" s="45">
-        <v>102</v>
-      </c>
-      <c r="J4" s="59">
-        <v>402</v>
-      </c>
-      <c r="K4" s="15">
-        <v>1003</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="53">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N4" s="53">
-        <v>0.34722222222222227</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
       <c r="O4" s="16"/>
       <c r="P4" s="65" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S4" s="54"/>
       <c r="T4" s="55"/>
@@ -1730,58 +1765,48 @@
       <c r="X4" s="56"/>
       <c r="Y4" s="57"/>
     </row>
-    <row r="5" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58">
-        <v>44616</v>
+        <v>44626</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F5" s="59">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="G5" s="64">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H5" s="60">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I5" s="45">
         <v>102</v>
       </c>
-      <c r="J5" s="59">
-        <v>4896</v>
-      </c>
-      <c r="K5" s="15">
-        <v>1004</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="53">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="N5" s="53">
-        <v>0.625</v>
-      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="16"/>
       <c r="P5" s="65" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S5" s="54"/>
       <c r="T5" s="55"/>
@@ -1796,58 +1821,56 @@
         <v>35931</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F6" s="59">
-        <v>4998</v>
+        <v>9300</v>
       </c>
       <c r="G6" s="64">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H6" s="60">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I6" s="45">
         <v>103</v>
       </c>
       <c r="J6" s="59">
-        <v>4770</v>
+        <v>9036</v>
       </c>
       <c r="K6" s="15">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L6" s="40" t="s">
         <v>42</v>
       </c>
       <c r="M6" s="53">
-        <v>0.35416666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="N6" s="53">
-        <v>0.44791666666666669</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="65" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S6" s="54"/>
-      <c r="T6" s="55" t="s">
-        <v>29</v>
-      </c>
+      <c r="T6" s="55"/>
       <c r="U6" s="56"/>
       <c r="V6" s="56"/>
       <c r="W6" s="56"/>
@@ -1859,106 +1882,104 @@
         <v>35931</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F7" s="59">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="64">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H7" s="60">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I7" s="45">
         <v>103</v>
       </c>
-      <c r="J7" s="59">
-        <v>5130</v>
-      </c>
-      <c r="K7" s="15">
-        <v>1001</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="53">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="N7" s="53">
-        <v>0.5625</v>
-      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="16"/>
       <c r="P7" s="65" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S7" s="54"/>
-      <c r="T7" s="55" t="s">
-        <v>29</v>
-      </c>
+      <c r="T7" s="55"/>
       <c r="U7" s="56"/>
       <c r="V7" s="56"/>
       <c r="W7" s="56"/>
       <c r="X7" s="56"/>
       <c r="Y7" s="57"/>
     </row>
-    <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
-        <v>35931</v>
+        <v>35317</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F8" s="59">
-        <v>9300</v>
+        <v>7760</v>
       </c>
       <c r="G8" s="64">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H8" s="60">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I8" s="45">
-        <v>103</v>
-      </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+        <v>105</v>
+      </c>
+      <c r="J8" s="59">
+        <v>7440</v>
+      </c>
+      <c r="K8" s="15">
+        <v>100</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="53">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="N8" s="53">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="O8" s="16"/>
       <c r="P8" s="65" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S8" s="54"/>
       <c r="T8" s="55"/>
@@ -1970,22 +1991,22 @@
     </row>
     <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67">
-        <v>3828</v>
+        <v>10284</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F9" s="71">
-        <v>10000</v>
+        <v>8800</v>
       </c>
       <c r="G9" s="72" t="s">
         <v>44</v>
@@ -1996,18 +2017,28 @@
       <c r="I9" s="74">
         <v>106.2</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="59">
+        <v>8640</v>
+      </c>
       <c r="K9" s="15"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="75"/>
+      <c r="M9" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N9" s="53">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="75" t="s">
+        <v>86</v>
+      </c>
       <c r="Q9" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="55"/>
@@ -2017,58 +2048,48 @@
       <c r="X9" s="56"/>
       <c r="Y9" s="57"/>
     </row>
-    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>28543</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="58" t="s">
+    <row r="10" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="67">
+        <v>10284</v>
+      </c>
+      <c r="B10" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="D10" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="59">
-        <v>4000</v>
-      </c>
-      <c r="G10" s="64">
-        <v>123</v>
-      </c>
-      <c r="H10" s="60">
-        <v>127</v>
-      </c>
-      <c r="I10" s="45">
-        <v>107</v>
-      </c>
-      <c r="J10" s="59">
-        <v>4095</v>
-      </c>
-      <c r="K10" s="15">
-        <v>193</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="53">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="N10" s="53">
-        <v>0.48958333333333331</v>
-      </c>
+      <c r="E10" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="71">
+        <v>20000</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="74">
+        <v>106.2</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="65" t="s">
-        <v>98</v>
+      <c r="P10" s="75" t="s">
+        <v>88</v>
       </c>
       <c r="Q10" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S10" s="54"/>
       <c r="T10" s="55"/>
@@ -2080,46 +2101,58 @@
     </row>
     <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
-        <v>7528</v>
+        <v>28544</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="F11" s="59">
-        <v>30000</v>
+        <v>5600</v>
       </c>
       <c r="G11" s="64">
-        <v>103</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>62</v>
+        <v>128</v>
+      </c>
+      <c r="H11" s="60">
+        <v>134</v>
       </c>
       <c r="I11" s="45">
-        <v>108.1</v>
-      </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="16"/>
+        <v>107</v>
+      </c>
+      <c r="J11" s="59">
+        <v>5328</v>
+      </c>
+      <c r="K11" s="15">
+        <v>195</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="53">
+        <v>0.34375</v>
+      </c>
+      <c r="N11" s="53">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="P11" s="65" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S11" s="54"/>
       <c r="T11" s="55"/>
@@ -2129,33 +2162,33 @@
       <c r="X11" s="56"/>
       <c r="Y11" s="57"/>
     </row>
-    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
-        <v>1822</v>
+        <v>28567</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="F12" s="59">
-        <v>27900</v>
+        <v>1900</v>
       </c>
       <c r="G12" s="64">
-        <v>132</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>66</v>
+        <v>130</v>
+      </c>
+      <c r="H12" s="60">
+        <v>130</v>
       </c>
       <c r="I12" s="45">
-        <v>108.2</v>
+        <v>107</v>
       </c>
       <c r="J12" s="59"/>
       <c r="K12" s="15"/>
@@ -2164,13 +2197,13 @@
       <c r="N12" s="53"/>
       <c r="O12" s="16"/>
       <c r="P12" s="65" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S12" s="54"/>
       <c r="T12" s="55"/>
@@ -2182,31 +2215,31 @@
     </row>
     <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
-        <v>11295</v>
+        <v>38180</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F13" s="59">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="G13" s="64">
-        <v>118</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>66</v>
+        <v>120</v>
+      </c>
+      <c r="H13" s="60">
+        <v>120</v>
       </c>
       <c r="I13" s="45">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="J13" s="59"/>
       <c r="K13" s="15"/>
@@ -2215,13 +2248,13 @@
       <c r="N13" s="53"/>
       <c r="O13" s="16"/>
       <c r="P13" s="65" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S13" s="54"/>
       <c r="T13" s="55"/>
@@ -2233,31 +2266,31 @@
     </row>
     <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
-        <v>30952</v>
+        <v>38853</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F14" s="59">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="G14" s="64">
-        <v>106</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>83</v>
+        <v>123</v>
+      </c>
+      <c r="H14" s="60">
+        <v>123</v>
       </c>
       <c r="I14" s="45">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="J14" s="59"/>
       <c r="K14" s="15"/>
@@ -2266,13 +2299,13 @@
       <c r="N14" s="53"/>
       <c r="O14" s="16"/>
       <c r="P14" s="65" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S14" s="54"/>
       <c r="T14" s="55"/>
@@ -2283,29 +2316,57 @@
       <c r="Y14" s="57"/>
     </row>
     <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
+      <c r="A15" s="58">
+        <v>30952</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="59">
+        <v>13360</v>
+      </c>
+      <c r="G15" s="64">
+        <v>115</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="45">
+        <v>108.3</v>
+      </c>
+      <c r="J15" s="59">
+        <v>13320</v>
+      </c>
+      <c r="K15" s="15">
+        <v>50.6</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="53">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N15" s="53">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="65" t="s">
+        <v>63</v>
+      </c>
       <c r="Q15" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S15" s="54"/>
       <c r="T15" s="55"/>
@@ -2317,31 +2378,31 @@
     </row>
     <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
-        <v>28267</v>
+        <v>38177</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F16" s="59">
-        <v>27500</v>
+        <v>10000</v>
       </c>
       <c r="G16" s="64">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H16" s="60">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="I16" s="45">
-        <v>111</v>
+        <v>108.3</v>
       </c>
       <c r="J16" s="59"/>
       <c r="K16" s="15"/>
@@ -2353,10 +2414,10 @@
         <v>59</v>
       </c>
       <c r="Q16" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S16" s="54"/>
       <c r="T16" s="55"/>
@@ -2368,31 +2429,31 @@
     </row>
     <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
-        <v>28267</v>
+        <v>38175</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="F17" s="59">
-        <v>27500</v>
-      </c>
-      <c r="G17" s="64">
-        <v>107</v>
-      </c>
-      <c r="H17" s="60">
-        <v>107</v>
+        <v>70000</v>
+      </c>
+      <c r="G17" s="76">
+        <v>135</v>
+      </c>
+      <c r="H17" s="77">
+        <v>135</v>
       </c>
       <c r="I17" s="45">
-        <v>112</v>
+        <v>108.4</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="15"/>
@@ -2401,13 +2462,13 @@
       <c r="N17" s="53"/>
       <c r="O17" s="16"/>
       <c r="P17" s="65" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S17" s="54"/>
       <c r="T17" s="55"/>
@@ -2418,53 +2479,29 @@
       <c r="Y17" s="57"/>
     </row>
     <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
-        <v>34432</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="71">
-        <v>1500</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="74">
-        <v>113</v>
-      </c>
-      <c r="J18" s="59">
-        <v>1523</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="53">
-        <v>0.375</v>
-      </c>
-      <c r="N18" s="53">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="75" t="s">
-        <v>109</v>
-      </c>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
       <c r="Q18" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S18" s="54"/>
       <c r="T18" s="55"/>
@@ -2476,56 +2513,56 @@
     </row>
     <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
-        <v>14801</v>
+        <v>28267</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="D19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="59">
+        <v>9350</v>
+      </c>
+      <c r="G19" s="64">
+        <v>107</v>
+      </c>
+      <c r="H19" s="60">
+        <v>107</v>
+      </c>
+      <c r="I19" s="45">
         <v>112</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="59">
-        <v>10000</v>
-      </c>
-      <c r="G19" s="64">
-        <v>114</v>
-      </c>
-      <c r="H19" s="60">
-        <v>114</v>
-      </c>
-      <c r="I19" s="45">
-        <v>114</v>
-      </c>
       <c r="J19" s="59">
-        <v>9636</v>
+        <v>9000</v>
       </c>
       <c r="K19" s="15">
-        <v>502</v>
+        <v>65</v>
       </c>
       <c r="L19" s="40" t="s">
         <v>42</v>
       </c>
       <c r="M19" s="53">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N19" s="53">
-        <v>0.68402777777777779</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="O19" s="16"/>
       <c r="P19" s="65" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S19" s="54"/>
       <c r="T19" s="55"/>
@@ -2537,31 +2574,31 @@
     </row>
     <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
-        <v>30387</v>
+        <v>28268</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E20" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="59">
+        <v>15000</v>
+      </c>
+      <c r="G20" s="64">
         <v>115</v>
       </c>
-      <c r="F20" s="59">
-        <v>16000</v>
-      </c>
-      <c r="G20" s="64">
-        <v>108</v>
-      </c>
       <c r="H20" s="60">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I20" s="45">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="15"/>
@@ -2570,13 +2607,13 @@
       <c r="N20" s="53"/>
       <c r="O20" s="16"/>
       <c r="P20" s="65" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S20" s="54"/>
       <c r="T20" s="55"/>
@@ -2587,32 +2624,32 @@
       <c r="Y20" s="57"/>
     </row>
     <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>41745</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="59">
-        <v>19600</v>
-      </c>
-      <c r="G21" s="64">
-        <v>109</v>
-      </c>
-      <c r="H21" s="60">
+      <c r="A21" s="67">
+        <v>40077</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="71">
+        <v>7000</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="74">
         <v>113</v>
-      </c>
-      <c r="I21" s="45">
-        <v>116</v>
       </c>
       <c r="J21" s="59"/>
       <c r="K21" s="15"/>
@@ -2620,14 +2657,12 @@
       <c r="M21" s="53"/>
       <c r="N21" s="53"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="65" t="s">
-        <v>59</v>
-      </c>
+      <c r="P21" s="75"/>
       <c r="Q21" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S21" s="54"/>
       <c r="T21" s="55"/>
@@ -2639,56 +2674,46 @@
     </row>
     <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
-        <v>29479</v>
+        <v>28566</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F22" s="59">
-        <v>3000</v>
+        <v>740</v>
       </c>
       <c r="G22" s="64">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H22" s="60">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I22" s="45">
-        <v>117</v>
-      </c>
-      <c r="J22" s="59">
-        <v>2832</v>
-      </c>
-      <c r="K22" s="15">
-        <v>425</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="53">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N22" s="53">
-        <v>0.4201388888888889</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="16"/>
       <c r="P22" s="65" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S22" s="54"/>
       <c r="T22" s="55"/>
@@ -2700,56 +2725,46 @@
     </row>
     <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
-        <v>29478</v>
+        <v>35319</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F23" s="59">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="G23" s="64">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H23" s="60">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I23" s="45">
-        <v>117</v>
-      </c>
-      <c r="J23" s="59">
-        <v>4956</v>
-      </c>
-      <c r="K23" s="15">
-        <v>425</v>
-      </c>
-      <c r="L23" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="53">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="N23" s="53">
-        <v>0.72916666666666663</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="16"/>
       <c r="P23" s="65" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S23" s="54"/>
       <c r="T23" s="55"/>
@@ -2761,56 +2776,46 @@
     </row>
     <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
-        <v>31179</v>
+        <v>28556</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E24" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="59">
+        <v>3200</v>
+      </c>
+      <c r="G24" s="64">
         <v>124</v>
       </c>
-      <c r="F24" s="59">
-        <v>2000</v>
-      </c>
-      <c r="G24" s="64">
-        <v>123</v>
-      </c>
       <c r="H24" s="60">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I24" s="45">
-        <v>117</v>
-      </c>
-      <c r="J24" s="59">
-        <v>2106</v>
-      </c>
-      <c r="K24" s="15">
-        <v>425</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="53">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="N24" s="53">
-        <v>0.51736111111111105</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="16"/>
       <c r="P24" s="65" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S24" s="54"/>
       <c r="T24" s="55"/>
@@ -2822,46 +2827,58 @@
     </row>
     <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
-        <v>31094</v>
+        <v>28539</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F25" s="59">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G25" s="64">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="H25" s="60">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I25" s="45">
-        <v>117</v>
-      </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="16"/>
+        <v>116</v>
+      </c>
+      <c r="J25" s="59">
+        <v>4300</v>
+      </c>
+      <c r="K25" s="15">
+        <v>251.5</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="53">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="N25" s="53">
+        <v>0.45</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="P25" s="65" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S25" s="54"/>
       <c r="T25" s="55"/>
@@ -2871,48 +2888,60 @@
       <c r="X25" s="56"/>
       <c r="Y25" s="57"/>
     </row>
-    <row r="26" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
-        <v>30976</v>
+        <v>28541</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F26" s="59">
-        <v>10000</v>
+        <v>4600</v>
       </c>
       <c r="G26" s="64">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H26" s="60">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="I26" s="45">
-        <v>118</v>
-      </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="16"/>
+        <v>116</v>
+      </c>
+      <c r="J26" s="59">
+        <v>4360</v>
+      </c>
+      <c r="K26" s="15">
+        <v>201</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="53">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="N26" s="53">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="P26" s="65" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S26" s="54"/>
       <c r="T26" s="55"/>
@@ -2924,50 +2953,46 @@
     </row>
     <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
-        <v>38150</v>
+        <v>35315</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F27" s="59">
-        <v>3200</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>44</v>
+        <v>7600</v>
+      </c>
+      <c r="G27" s="64">
+        <v>126</v>
+      </c>
+      <c r="H27" s="60">
+        <v>126</v>
       </c>
       <c r="I27" s="45">
-        <v>119</v>
-      </c>
-      <c r="J27" s="59">
-        <v>3200</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="J27" s="59"/>
       <c r="K27" s="15"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="53">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="N27" s="53">
-        <v>0.5</v>
-      </c>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="65"/>
+      <c r="P27" s="65" t="s">
+        <v>102</v>
+      </c>
       <c r="Q27" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S27" s="54"/>
       <c r="T27" s="55"/>
@@ -2978,51 +3003,29 @@
       <c r="Y27" s="57"/>
     </row>
     <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
-        <v>34431</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="59">
-        <v>1500</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="45">
-        <v>119</v>
-      </c>
-      <c r="J28" s="59">
-        <v>1500</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N28" s="53">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="65"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
       <c r="Q28" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S28" s="54"/>
       <c r="T28" s="55"/>
@@ -3032,52 +3035,48 @@
       <c r="X28" s="56"/>
       <c r="Y28" s="57"/>
     </row>
-    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
-        <v>36224</v>
+        <v>37682</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="F29" s="59">
-        <v>14900</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>44</v>
+        <v>3350</v>
+      </c>
+      <c r="G29" s="64">
+        <v>117</v>
+      </c>
+      <c r="H29" s="60">
+        <v>117</v>
       </c>
       <c r="I29" s="45">
-        <v>119</v>
-      </c>
-      <c r="J29" s="59">
-        <v>14900</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="J29" s="59"/>
       <c r="K29" s="15"/>
       <c r="L29" s="40"/>
-      <c r="M29" s="53">
-        <v>0.5625</v>
-      </c>
-      <c r="N29" s="53">
-        <v>0.75694444444444453</v>
-      </c>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="65"/>
+      <c r="P29" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="Q29" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S29" s="54"/>
       <c r="T29" s="55"/>
@@ -3088,29 +3087,47 @@
       <c r="Y29" s="57"/>
     </row>
     <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+      <c r="A30" s="58">
+        <v>26121</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="59">
+        <v>2640</v>
+      </c>
+      <c r="G30" s="64">
+        <v>300</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="45">
+        <v>124</v>
+      </c>
+      <c r="J30" s="59"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="65" t="s">
+        <v>146</v>
+      </c>
       <c r="Q30" s="10">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S30" s="54"/>
       <c r="T30" s="55"/>
@@ -3121,48 +3138,24 @@
       <c r="Y30" s="57"/>
     </row>
     <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67">
-        <v>26121</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="71">
-        <v>1500</v>
-      </c>
-      <c r="G31" s="72">
-        <v>300</v>
-      </c>
-      <c r="H31" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="74">
-        <v>124</v>
-      </c>
+      <c r="A31" s="58"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="59"/>
       <c r="K31" s="15"/>
       <c r="L31" s="40"/>
       <c r="M31" s="53"/>
       <c r="N31" s="53"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>43895</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="11"/>
       <c r="S31" s="54"/>
       <c r="T31" s="55"/>
       <c r="U31" s="56"/>
@@ -3171,57 +3164,57 @@
       <c r="X31" s="56"/>
       <c r="Y31" s="57"/>
     </row>
-    <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="57"/>
-    </row>
-    <row r="33" spans="1:17" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+    <row r="32" spans="1:25" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="1:17" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="H33" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="17">
+        <v>24</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
-      <c r="O33" s="22" t="s">
-        <v>11</v>
+      <c r="O33" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="1:17" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3230,72 +3223,45 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" s="26"/>
-      <c r="J34" s="17">
-        <v>28</v>
+      <c r="J34" s="28">
+        <v>7</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="27">
-        <v>28</v>
+      <c r="O34" s="63">
+        <v>7</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="1:17" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="28">
-        <v>8</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="63">
-        <v>8</v>
-      </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="1:17" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-    </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:17" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vl7GN0fOwdMkjQ9ergCk8xboKQvH7u5Z7gALkcmLf8qg/MSHOAOJTM9Poi+xlJ6xAGwxq9hl3gbmQF2pANRkWA==" saltValue="qioTJHOsJd9kPtP9TWPlVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BMVjxI3ZkH/9RAttXAdl4Vi4ufyxk1nnQSXYSROw396eOFxJ4rtFQ+u7O5yWP8WLL26t0LxuStcujZ/B23fBVQ==" saltValue="LzFgAMqWXQyR50vPg7kcJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="J1:O1048576" name="Диапазон1"/>
     <protectedRange sqref="R1:R1048576" name="Диапазон2"/>
     <protectedRange sqref="T1:T1048576" name="Диапазон3"/>
   </protectedRanges>
-  <autoFilter ref="A1:R186"/>
-  <conditionalFormatting sqref="A36:X36">
+  <autoFilter ref="A1:R187"/>
+  <conditionalFormatting sqref="A35:X35">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M286:N287 M277:N284 M224:N275">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M287:N288 M278:N285 M225:N276">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>

--- a/Generate/Копия Отчет2.xlsx
+++ b/Generate/Копия Отчет2.xlsx
@@ -13,17 +13,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Выпуск!$A$1:$R$187</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="proizvod - Личное представление" guid="{F88D1252-4D89-4F80-8D39-F77DF7673B9C}" autoUpdate="1" mergeInterval="5" personalView="1" maximized="1" windowWidth="1596" windowHeight="655" activeSheetId="1"/>
+    <customWorkbookView name="Екатерина Н. Ботвинкина - Личное представление" guid="{EFBE0C0D-1D2D-4224-935A-F324D15FB403}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="675" activeSheetId="1"/>
+    <customWorkbookView name="lab4 - Личное представление" guid="{2B26FDEF-B69D-46CF-BD86-BF5016A1C991}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="1"/>
+    <customWorkbookView name="o.medvedchikova - Личное представление" guid="{07D7518C-E785-4DCA-B6EC-20A0E5B1C86B}" mergeInterval="0" personalView="1" maximized="1" yWindow="-4" windowWidth="1233" windowHeight="690" activeSheetId="1"/>
+    <customWorkbookView name="Дмитрий И. Симонов - Личное представление" guid="{9F33737B-8279-48D0-A2A2-C2035405B4C1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="671" activeSheetId="1"/>
+    <customWorkbookView name="Денис Ю. Кудрявцев - Личное представление" guid="{4F59D87F-ED20-4040-A064-D4D0AC7EFBB7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="759" activeSheetId="1"/>
+    <customWorkbookView name="Ирина В. Быстрова - Личное представление" guid="{B04CB7C8-9E32-40B5-A195-EF6C1654EF10}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="779" activeSheetId="1"/>
+    <customWorkbookView name="lab6 - Личное представление" guid="{B45CD6EE-4206-4B18-9590-E8195270FE73}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="675" activeSheetId="1"/>
     <customWorkbookView name="Алексей Э. Иоселевский - Личное представление" guid="{53B2E19A-2C0B-470C-A558-EBB9F81DA030}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="655" activeSheetId="1"/>
-    <customWorkbookView name="lab6 - Личное представление" guid="{B45CD6EE-4206-4B18-9590-E8195270FE73}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="675" activeSheetId="1"/>
-    <customWorkbookView name="Ирина В. Быстрова - Личное представление" guid="{B04CB7C8-9E32-40B5-A195-EF6C1654EF10}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="779" activeSheetId="1"/>
-    <customWorkbookView name="Денис Ю. Кудрявцев - Личное представление" guid="{4F59D87F-ED20-4040-A064-D4D0AC7EFBB7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="759" activeSheetId="1"/>
-    <customWorkbookView name="Дмитрий И. Симонов - Личное представление" guid="{9F33737B-8279-48D0-A2A2-C2035405B4C1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="671" activeSheetId="1"/>
-    <customWorkbookView name="o.medvedchikova - Личное представление" guid="{07D7518C-E785-4DCA-B6EC-20A0E5B1C86B}" mergeInterval="0" personalView="1" maximized="1" yWindow="-4" windowWidth="1233" windowHeight="690" activeSheetId="1"/>
-    <customWorkbookView name="lab4 - Личное представление" guid="{2B26FDEF-B69D-46CF-BD86-BF5016A1C991}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="1"/>
-    <customWorkbookView name="Екатерина Н. Ботвинкина - Личное представление" guid="{EFBE0C0D-1D2D-4224-935A-F324D15FB403}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="675" activeSheetId="1"/>
-    <customWorkbookView name="proizvod - Личное представление" guid="{F88D1252-4D89-4F80-8D39-F77DF7673B9C}" autoUpdate="1" mergeInterval="5" personalView="1" maximized="1" windowWidth="1596" windowHeight="655" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1557,7 +1557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1604,7 @@
       <c r="M1" s="47"/>
       <c r="N1" s="47"/>
       <c r="O1" s="9">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="10">

--- a/Generate/Копия Отчет2.xlsx
+++ b/Generate/Копия Отчет2.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Выпуск!$A$1:$R$187</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
     <customWorkbookView name="proizvod - Личное представление" guid="{F88D1252-4D89-4F80-8D39-F77DF7673B9C}" autoUpdate="1" mergeInterval="5" personalView="1" maximized="1" windowWidth="1596" windowHeight="655" activeSheetId="1"/>
     <customWorkbookView name="Екатерина Н. Ботвинкина - Личное представление" guid="{EFBE0C0D-1D2D-4224-935A-F324D15FB403}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="675" activeSheetId="1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
   <si>
     <t>ИТОГИ</t>
   </si>
@@ -250,9 +250,6 @@
     <t>бальзам (белый)</t>
   </si>
   <si>
-    <t>LOVE</t>
-  </si>
-  <si>
     <t>811B0</t>
   </si>
   <si>
@@ -268,24 +265,9 @@
     <t>KIKI/B1</t>
   </si>
   <si>
-    <t xml:space="preserve">HC LUXURY BLOND </t>
-  </si>
-  <si>
-    <t>С/П LOVE 6</t>
-  </si>
-  <si>
-    <t>V-4</t>
-  </si>
-  <si>
     <t>PRINCESS ESSEX</t>
   </si>
   <si>
-    <t>P/03/60</t>
-  </si>
-  <si>
-    <t>146C0</t>
-  </si>
-  <si>
     <t>маска</t>
   </si>
   <si>
@@ -295,9 +277,6 @@
     <t>HC LUXURY VOLUTE</t>
   </si>
   <si>
-    <t>202C0</t>
-  </si>
-  <si>
     <t>упаковка (пудра)</t>
   </si>
   <si>
@@ -307,33 +286,18 @@
     <t xml:space="preserve">DL/P30 </t>
   </si>
   <si>
-    <t>856L9</t>
-  </si>
-  <si>
-    <t>140C0</t>
-  </si>
-  <si>
     <t>VEDMA</t>
   </si>
   <si>
     <t>VED/B1</t>
   </si>
   <si>
-    <t>крем</t>
-  </si>
-  <si>
-    <t>HC/LV/C</t>
-  </si>
-  <si>
     <t>по пакетам</t>
   </si>
   <si>
     <t>625A0</t>
   </si>
   <si>
-    <t>с/п в старой плёнке укладываем в боксы старого дизайна!!! с/п в новой плёнке - в новые боксы!, продолжение на следующий день</t>
-  </si>
-  <si>
     <t>шампунь</t>
   </si>
   <si>
@@ -346,9 +310,6 @@
     <t>203C0</t>
   </si>
   <si>
-    <t>145C0</t>
-  </si>
-  <si>
     <t>счетчик не сбрасывать! (продолжение пред партии), по продукту</t>
   </si>
   <si>
@@ -358,21 +319,9 @@
     <t>шампунь (белый)</t>
   </si>
   <si>
-    <t>HC/B/S1</t>
-  </si>
-  <si>
-    <t>205C0</t>
-  </si>
-  <si>
     <t>HC LUXURY HAIR</t>
   </si>
   <si>
-    <t>HC/H/B</t>
-  </si>
-  <si>
-    <t>206C0</t>
-  </si>
-  <si>
     <t>по флаконам</t>
   </si>
   <si>
@@ -385,12 +334,6 @@
     <t>HC333/BC</t>
   </si>
   <si>
-    <t>фасуем через ДОП/1000, счетчик не сбрасывать! (продолжение пред партии), по продукту</t>
-  </si>
-  <si>
-    <t>201C0</t>
-  </si>
-  <si>
     <t>шампунь (б/цв)</t>
   </si>
   <si>
@@ -400,21 +343,6 @@
     <t>AH/SH1000</t>
   </si>
   <si>
-    <t>248C0</t>
-  </si>
-  <si>
-    <t>249C0</t>
-  </si>
-  <si>
-    <t>фасуем по окончании работ на конвейере №121, счетчик не сбрасывать! (продолжение пред партии), по продукту</t>
-  </si>
-  <si>
-    <t>HC/B/M3</t>
-  </si>
-  <si>
-    <t>250C0</t>
-  </si>
-  <si>
     <t>по банкам</t>
   </si>
   <si>
@@ -424,9 +352,6 @@
     <t>251C0</t>
   </si>
   <si>
-    <t>по плану (делайте ДОПы если время останется), продолжение на следующий день</t>
-  </si>
-  <si>
     <t>HC LUXURY REPAIR 10 мл</t>
   </si>
   <si>
@@ -460,27 +385,12 @@
     <t>254C0</t>
   </si>
   <si>
-    <t>наклейка флаконов</t>
-  </si>
-  <si>
     <t>AIREX</t>
   </si>
   <si>
-    <t>Н/ФЛ APU100</t>
-  </si>
-  <si>
     <t>309C0</t>
   </si>
   <si>
-    <t>спрей (водный)</t>
-  </si>
-  <si>
-    <t>HC/LV/HM</t>
-  </si>
-  <si>
-    <t>258C0</t>
-  </si>
-  <si>
     <t>HC LUXURY COLOR</t>
   </si>
   <si>
@@ -490,34 +400,136 @@
     <t>259C0</t>
   </si>
   <si>
-    <t>HC/B/B</t>
-  </si>
-  <si>
-    <t>257C0</t>
-  </si>
-  <si>
-    <t>HC/LV/S</t>
-  </si>
-  <si>
-    <t>256C0</t>
-  </si>
-  <si>
-    <t>счетчик не сбрасывать! (продолжение пред партии), по окончании переходим на конвейер №105</t>
-  </si>
-  <si>
     <t>по пудре</t>
   </si>
   <si>
-    <t>24+1укладчик</t>
-  </si>
-  <si>
-    <t>по с/пакетам</t>
-  </si>
-  <si>
-    <t>по флаконам и по продукту</t>
-  </si>
-  <si>
-    <t>по банкам и по продукту</t>
+    <t>294C0</t>
+  </si>
+  <si>
+    <t>фасуем по окончании работ на конвейере №121, фасуем через ДОП/1000, по продукту, по окончании переходим на конвейер №115</t>
+  </si>
+  <si>
+    <t>199C0</t>
+  </si>
+  <si>
+    <t>BABAYAGA</t>
+  </si>
+  <si>
+    <t>BBY/B1</t>
+  </si>
+  <si>
+    <t>246C0</t>
+  </si>
+  <si>
+    <t>247C0</t>
+  </si>
+  <si>
+    <t>295C0</t>
+  </si>
+  <si>
+    <t>299C0</t>
+  </si>
+  <si>
+    <t>VED/S1</t>
+  </si>
+  <si>
+    <t>300C0</t>
+  </si>
+  <si>
+    <t>301C0</t>
+  </si>
+  <si>
+    <t>302C0</t>
+  </si>
+  <si>
+    <t>по корпусам</t>
+  </si>
+  <si>
+    <t>упаковка (шампунь)</t>
+  </si>
+  <si>
+    <t>HC/LV/SB</t>
+  </si>
+  <si>
+    <t>фасуем по окончании работ на конвейере №117, продолжение на следующий день</t>
+  </si>
+  <si>
+    <t>626A0</t>
+  </si>
+  <si>
+    <t>эликсир</t>
+  </si>
+  <si>
+    <t>HC LUXURY REPAIR 3 мл</t>
+  </si>
+  <si>
+    <t>С/П HC/R/MD3</t>
+  </si>
+  <si>
+    <t>304C0</t>
+  </si>
+  <si>
+    <t>LО 9/60</t>
+  </si>
+  <si>
+    <t>255C0</t>
+  </si>
+  <si>
+    <t>315 шт старых гофроящиков, далее новые, продолжение на следующий день</t>
+  </si>
+  <si>
+    <t>обрезка</t>
+  </si>
+  <si>
+    <t>ПРОЧИЕ РАБОТЫ</t>
+  </si>
+  <si>
+    <t>ОБРЕЗКА НА ?мм</t>
+  </si>
+  <si>
+    <t>обрезание Микродозаторов 100 мл HC (код 1С - 35790), на склад отправляем, как Микродозаторы 50 мл HC (код 1С - 20165), по плану</t>
+  </si>
+  <si>
+    <t>CUREX VOLUME</t>
+  </si>
+  <si>
+    <t>CR300/S2</t>
+  </si>
+  <si>
+    <t>307C0</t>
+  </si>
+  <si>
+    <t>фасуем по окончании работ на конвейере №101, продолжение на следующий день (НОВАЯ ПРОДУКЦИЯ!)</t>
+  </si>
+  <si>
+    <t>CUREX BRILLIANCE</t>
+  </si>
+  <si>
+    <t>CU250/B17</t>
+  </si>
+  <si>
+    <t>308C0</t>
+  </si>
+  <si>
+    <t>по флаконам, по окончании переходим на конвейер №105</t>
+  </si>
+  <si>
+    <t>наклейка / маркировка коробочек</t>
+  </si>
+  <si>
+    <t>МАР/КОР HC/LV/C</t>
+  </si>
+  <si>
+    <t>348C0</t>
+  </si>
+  <si>
+    <t>счетчик не сбрасывать! (продолжение пред партии), по окончании переходим на конвейер №101</t>
+  </si>
+  <si>
+    <t>спрей (спиртовой)</t>
+  </si>
+  <si>
+    <t>APU100</t>
   </si>
 </sst>
 </file>
@@ -762,7 +774,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +826,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +936,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1133,11 +1151,14 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1557,7 +1578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,21 +1618,21 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K1" s="46"/>
       <c r="L1" s="7"/>
       <c r="M1" s="47"/>
       <c r="N1" s="47"/>
       <c r="O1" s="9">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S1" s="31" t="s">
         <v>47</v>
@@ -1668,10 +1689,10 @@
         <v>57</v>
       </c>
       <c r="Q2" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S2" s="31"/>
       <c r="T2" s="55"/>
@@ -1701,10 +1722,10 @@
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S3" s="54"/>
       <c r="T3" s="55"/>
@@ -1719,19 +1740,19 @@
         <v>44616</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="D4" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>66</v>
-      </c>
       <c r="E4" s="44" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F4" s="59">
-        <v>2214</v>
+        <v>5000</v>
       </c>
       <c r="G4" s="64">
         <v>110</v>
@@ -1749,13 +1770,13 @@
       <c r="N4" s="53"/>
       <c r="O4" s="16"/>
       <c r="P4" s="65" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S4" s="54"/>
       <c r="T4" s="55"/>
@@ -1773,22 +1794,22 @@
         <v>60</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F5" s="59">
         <v>5000</v>
       </c>
       <c r="G5" s="64">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H5" s="60">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="45">
         <v>102</v>
@@ -1800,13 +1821,13 @@
       <c r="N5" s="53"/>
       <c r="O5" s="16"/>
       <c r="P5" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S5" s="54"/>
       <c r="T5" s="55"/>
@@ -1818,56 +1839,46 @@
     </row>
     <row r="6" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
-        <v>35931</v>
+        <v>44610</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C6" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="59">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="64">
         <v>109</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="59">
-        <v>9300</v>
-      </c>
-      <c r="G6" s="64">
-        <v>112</v>
-      </c>
       <c r="H6" s="60">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I6" s="45">
-        <v>103</v>
-      </c>
-      <c r="J6" s="59">
-        <v>9036</v>
-      </c>
-      <c r="K6" s="15">
-        <v>1003</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="53">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="N6" s="53">
-        <v>0.59166666666666667</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="16"/>
       <c r="P6" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S6" s="54"/>
       <c r="T6" s="55"/>
@@ -1879,31 +1890,31 @@
     </row>
     <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
-        <v>35931</v>
+        <v>44610</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F7" s="59">
         <v>5000</v>
       </c>
       <c r="G7" s="64">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H7" s="60">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I7" s="45">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="15"/>
@@ -1912,13 +1923,13 @@
       <c r="N7" s="53"/>
       <c r="O7" s="16"/>
       <c r="P7" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S7" s="54"/>
       <c r="T7" s="55"/>
@@ -1928,58 +1939,48 @@
       <c r="X7" s="56"/>
       <c r="Y7" s="57"/>
     </row>
-    <row r="8" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
-        <v>35317</v>
+        <v>44610</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="F8" s="59">
-        <v>7760</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="64">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H8" s="60">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I8" s="45">
-        <v>105</v>
-      </c>
-      <c r="J8" s="59">
-        <v>7440</v>
-      </c>
-      <c r="K8" s="15">
-        <v>100</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="53">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="N8" s="53">
-        <v>0.63541666666666663</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="16"/>
       <c r="P8" s="65" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S8" s="54"/>
       <c r="T8" s="55"/>
@@ -1990,55 +1991,47 @@
       <c r="Y8" s="57"/>
     </row>
     <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
-        <v>10284</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="71">
-        <v>8800</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="74">
-        <v>106.2</v>
-      </c>
-      <c r="J9" s="59">
-        <v>8640</v>
-      </c>
+      <c r="A9" s="58">
+        <v>35931</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="59">
+        <v>8000</v>
+      </c>
+      <c r="G9" s="64">
+        <v>112</v>
+      </c>
+      <c r="H9" s="60">
+        <v>112</v>
+      </c>
+      <c r="I9" s="45">
+        <v>103</v>
+      </c>
+      <c r="J9" s="59"/>
       <c r="K9" s="15"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N9" s="53">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="P9" s="75" t="s">
-        <v>86</v>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="65" t="s">
+        <v>85</v>
       </c>
       <c r="Q9" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="55"/>
@@ -2048,33 +2041,33 @@
       <c r="X9" s="56"/>
       <c r="Y9" s="57"/>
     </row>
-    <row r="10" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
-        <v>10284</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="71">
-        <v>20000</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="74">
-        <v>106.2</v>
+    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>44622</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="59">
+        <v>3830</v>
+      </c>
+      <c r="G10" s="64">
+        <v>103</v>
+      </c>
+      <c r="H10" s="60">
+        <v>103</v>
+      </c>
+      <c r="I10" s="45">
+        <v>103</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="15"/>
@@ -2082,14 +2075,14 @@
       <c r="M10" s="53"/>
       <c r="N10" s="53"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="75" t="s">
-        <v>88</v>
+      <c r="P10" s="65" t="s">
+        <v>62</v>
       </c>
       <c r="Q10" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S10" s="54"/>
       <c r="T10" s="55"/>
@@ -2101,58 +2094,46 @@
     </row>
     <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
-        <v>28544</v>
+        <v>44622</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>67</v>
-      </c>
       <c r="D11" s="43" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F11" s="59">
-        <v>5600</v>
+        <v>3830</v>
       </c>
       <c r="G11" s="64">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H11" s="60">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="I11" s="45">
-        <v>107</v>
-      </c>
-      <c r="J11" s="59">
-        <v>5328</v>
-      </c>
-      <c r="K11" s="15">
-        <v>195</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="53">
-        <v>0.34375</v>
-      </c>
-      <c r="N11" s="53">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>150</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="16"/>
       <c r="P11" s="65" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S11" s="54"/>
       <c r="T11" s="55"/>
@@ -2162,33 +2143,33 @@
       <c r="X11" s="56"/>
       <c r="Y11" s="57"/>
     </row>
-    <row r="12" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
-        <v>28567</v>
+        <v>44622</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>99</v>
-      </c>
       <c r="D12" s="43" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F12" s="59">
-        <v>1900</v>
+        <v>3830</v>
       </c>
       <c r="G12" s="64">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="H12" s="60">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I12" s="45">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J12" s="59"/>
       <c r="K12" s="15"/>
@@ -2197,13 +2178,13 @@
       <c r="N12" s="53"/>
       <c r="O12" s="16"/>
       <c r="P12" s="65" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S12" s="54"/>
       <c r="T12" s="55"/>
@@ -2213,33 +2194,33 @@
       <c r="X12" s="56"/>
       <c r="Y12" s="57"/>
     </row>
-    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
-        <v>38180</v>
+        <v>40848</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F13" s="59">
-        <v>70000</v>
-      </c>
-      <c r="G13" s="64">
-        <v>120</v>
-      </c>
-      <c r="H13" s="60">
-        <v>120</v>
+        <v>1000</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>44</v>
       </c>
       <c r="I13" s="45">
-        <v>108.1</v>
+        <v>105</v>
       </c>
       <c r="J13" s="59"/>
       <c r="K13" s="15"/>
@@ -2248,13 +2229,13 @@
       <c r="N13" s="53"/>
       <c r="O13" s="16"/>
       <c r="P13" s="65" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S13" s="54"/>
       <c r="T13" s="55"/>
@@ -2265,32 +2246,32 @@
       <c r="Y13" s="57"/>
     </row>
     <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <v>38853</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="59">
-        <v>70000</v>
-      </c>
-      <c r="G14" s="64">
-        <v>123</v>
-      </c>
-      <c r="H14" s="60">
-        <v>123</v>
-      </c>
-      <c r="I14" s="45">
-        <v>108.2</v>
+      <c r="A14" s="67">
+        <v>10284</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="71">
+        <v>5510</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="74">
+        <v>106.2</v>
       </c>
       <c r="J14" s="59"/>
       <c r="K14" s="15"/>
@@ -2298,14 +2279,14 @@
       <c r="M14" s="53"/>
       <c r="N14" s="53"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="65" t="s">
-        <v>63</v>
+      <c r="P14" s="75" t="s">
+        <v>75</v>
       </c>
       <c r="Q14" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S14" s="54"/>
       <c r="T14" s="55"/>
@@ -2316,57 +2297,47 @@
       <c r="Y14" s="57"/>
     </row>
     <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
-        <v>30952</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="59">
-        <v>13360</v>
-      </c>
-      <c r="G15" s="64">
-        <v>115</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="45">
-        <v>108.3</v>
-      </c>
-      <c r="J15" s="59">
-        <v>13320</v>
-      </c>
-      <c r="K15" s="15">
-        <v>50.6</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="53">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N15" s="53">
-        <v>0.55555555555555558</v>
-      </c>
+      <c r="A15" s="67">
+        <v>10284</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="71">
+        <v>20670</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="74">
+        <v>106.2</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="16"/>
-      <c r="P15" s="65" t="s">
-        <v>63</v>
+      <c r="P15" s="75" t="s">
+        <v>75</v>
       </c>
       <c r="Q15" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S15" s="54"/>
       <c r="T15" s="55"/>
@@ -2378,31 +2349,31 @@
     </row>
     <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
-        <v>38177</v>
+        <v>28567</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F16" s="59">
-        <v>10000</v>
+        <v>11900</v>
       </c>
       <c r="G16" s="64">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H16" s="60">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I16" s="45">
-        <v>108.3</v>
+        <v>107</v>
       </c>
       <c r="J16" s="59"/>
       <c r="K16" s="15"/>
@@ -2411,13 +2382,13 @@
       <c r="N16" s="53"/>
       <c r="O16" s="16"/>
       <c r="P16" s="65" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S16" s="54"/>
       <c r="T16" s="55"/>
@@ -2429,31 +2400,31 @@
     </row>
     <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
-        <v>38175</v>
+        <v>38180</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F17" s="59">
-        <v>70000</v>
-      </c>
-      <c r="G17" s="76">
-        <v>135</v>
-      </c>
-      <c r="H17" s="77">
-        <v>135</v>
+        <v>69550</v>
+      </c>
+      <c r="G17" s="64">
+        <v>120</v>
+      </c>
+      <c r="H17" s="60">
+        <v>120</v>
       </c>
       <c r="I17" s="45">
-        <v>108.4</v>
+        <v>108.1</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="15"/>
@@ -2462,13 +2433,13 @@
       <c r="N17" s="53"/>
       <c r="O17" s="16"/>
       <c r="P17" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S17" s="54"/>
       <c r="T17" s="55"/>
@@ -2479,29 +2450,47 @@
       <c r="Y17" s="57"/>
     </row>
     <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
+      <c r="A18" s="58">
+        <v>38853</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="59">
+        <v>22050</v>
+      </c>
+      <c r="G18" s="64">
+        <v>123</v>
+      </c>
+      <c r="H18" s="60">
+        <v>123</v>
+      </c>
+      <c r="I18" s="45">
+        <v>108.2</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="65" t="s">
+        <v>62</v>
+      </c>
       <c r="Q18" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S18" s="54"/>
       <c r="T18" s="55"/>
@@ -2513,56 +2502,46 @@
     </row>
     <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
-        <v>28267</v>
+        <v>38182</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="F19" s="59">
-        <v>9350</v>
+        <v>20000</v>
       </c>
       <c r="G19" s="64">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="H19" s="60">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="I19" s="45">
-        <v>112</v>
-      </c>
-      <c r="J19" s="59">
-        <v>9000</v>
-      </c>
-      <c r="K19" s="15">
-        <v>65</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="53">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N19" s="53">
-        <v>0.54166666666666663</v>
-      </c>
+        <v>108.2</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="16"/>
       <c r="P19" s="65" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S19" s="54"/>
       <c r="T19" s="55"/>
@@ -2574,31 +2553,31 @@
     </row>
     <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
-        <v>28268</v>
+        <v>38177</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F20" s="59">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="64">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H20" s="60">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="I20" s="45">
-        <v>112</v>
+        <v>108.3</v>
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="15"/>
@@ -2610,10 +2589,10 @@
         <v>59</v>
       </c>
       <c r="Q20" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S20" s="54"/>
       <c r="T20" s="55"/>
@@ -2624,32 +2603,32 @@
       <c r="Y20" s="57"/>
     </row>
     <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
-        <v>40077</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="71">
-        <v>7000</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="74">
-        <v>113</v>
+      <c r="A21" s="58">
+        <v>38175</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="59">
+        <v>70000</v>
+      </c>
+      <c r="G21" s="64">
+        <v>135</v>
+      </c>
+      <c r="H21" s="60">
+        <v>135</v>
+      </c>
+      <c r="I21" s="45">
+        <v>108.4</v>
       </c>
       <c r="J21" s="59"/>
       <c r="K21" s="15"/>
@@ -2657,12 +2636,14 @@
       <c r="M21" s="53"/>
       <c r="N21" s="53"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="75"/>
+      <c r="P21" s="65" t="s">
+        <v>62</v>
+      </c>
       <c r="Q21" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S21" s="54"/>
       <c r="T21" s="55"/>
@@ -2673,47 +2654,29 @@
       <c r="Y21" s="57"/>
     </row>
     <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
-        <v>28566</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="59">
-        <v>740</v>
-      </c>
-      <c r="G22" s="64">
-        <v>114</v>
-      </c>
-      <c r="H22" s="60">
-        <v>114</v>
-      </c>
-      <c r="I22" s="45">
-        <v>115</v>
-      </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="65" t="s">
-        <v>95</v>
-      </c>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
       <c r="Q22" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S22" s="54"/>
       <c r="T22" s="55"/>
@@ -2725,31 +2688,31 @@
     </row>
     <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
-        <v>35319</v>
+        <v>28268</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F23" s="59">
-        <v>9500</v>
+        <v>11200</v>
       </c>
       <c r="G23" s="64">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H23" s="60">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I23" s="45">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J23" s="59"/>
       <c r="K23" s="15"/>
@@ -2758,13 +2721,13 @@
       <c r="N23" s="53"/>
       <c r="O23" s="16"/>
       <c r="P23" s="65" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S23" s="54"/>
       <c r="T23" s="55"/>
@@ -2774,33 +2737,33 @@
       <c r="X23" s="56"/>
       <c r="Y23" s="57"/>
     </row>
-    <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
-        <v>28556</v>
+        <v>5158</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F24" s="59">
-        <v>3200</v>
+        <v>15000</v>
       </c>
       <c r="G24" s="64">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H24" s="60">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I24" s="45">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J24" s="59"/>
       <c r="K24" s="15"/>
@@ -2809,13 +2772,13 @@
       <c r="N24" s="53"/>
       <c r="O24" s="16"/>
       <c r="P24" s="65" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S24" s="54"/>
       <c r="T24" s="55"/>
@@ -2825,60 +2788,48 @@
       <c r="X24" s="56"/>
       <c r="Y24" s="57"/>
     </row>
-    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
-        <v>28539</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="59">
+    <row r="25" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="67">
+        <v>999999</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="71">
         <v>5000</v>
       </c>
-      <c r="G25" s="64">
-        <v>106</v>
-      </c>
-      <c r="H25" s="60">
-        <v>106</v>
-      </c>
-      <c r="I25" s="45">
-        <v>116</v>
-      </c>
-      <c r="J25" s="59">
-        <v>4300</v>
-      </c>
-      <c r="K25" s="15">
-        <v>251.5</v>
-      </c>
-      <c r="L25" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="53">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="N25" s="53">
-        <v>0.45</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="P25" s="65" t="s">
-        <v>95</v>
+      <c r="G25" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="74">
+        <v>113</v>
+      </c>
+      <c r="J25" s="59"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="77" t="s">
+        <v>140</v>
       </c>
       <c r="Q25" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S25" s="54"/>
       <c r="T25" s="55"/>
@@ -2888,60 +2839,48 @@
       <c r="X25" s="56"/>
       <c r="Y25" s="57"/>
     </row>
-    <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
-        <v>28541</v>
+        <v>46291</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F26" s="59">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="G26" s="64">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H26" s="60">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I26" s="45">
-        <v>116</v>
-      </c>
-      <c r="J26" s="59">
-        <v>4360</v>
-      </c>
-      <c r="K26" s="15">
-        <v>201</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="53">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="N26" s="53">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="P26" s="65" t="s">
-        <v>102</v>
+        <v>115</v>
+      </c>
+      <c r="J26" s="59"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="78" t="s">
+        <v>144</v>
       </c>
       <c r="Q26" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S26" s="54"/>
       <c r="T26" s="55"/>
@@ -2953,31 +2892,31 @@
     </row>
     <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
-        <v>35315</v>
+        <v>28556</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="F27" s="59">
-        <v>7600</v>
+        <v>980</v>
       </c>
       <c r="G27" s="64">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H27" s="60">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I27" s="45">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J27" s="59"/>
       <c r="K27" s="15"/>
@@ -2986,13 +2925,13 @@
       <c r="N27" s="53"/>
       <c r="O27" s="16"/>
       <c r="P27" s="65" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S27" s="54"/>
       <c r="T27" s="55"/>
@@ -3003,29 +2942,47 @@
       <c r="Y27" s="57"/>
     </row>
     <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
+      <c r="A28" s="58">
+        <v>14817</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="59">
+        <v>12500</v>
+      </c>
+      <c r="G28" s="64">
+        <v>132</v>
+      </c>
+      <c r="H28" s="60">
+        <v>132</v>
+      </c>
+      <c r="I28" s="45">
+        <v>117</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="65" t="s">
+        <v>148</v>
+      </c>
       <c r="Q28" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S28" s="54"/>
       <c r="T28" s="55"/>
@@ -3035,33 +2992,33 @@
       <c r="X28" s="56"/>
       <c r="Y28" s="57"/>
     </row>
-    <row r="29" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
-        <v>37682</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="59">
-        <v>3350</v>
-      </c>
-      <c r="G29" s="64">
-        <v>117</v>
-      </c>
-      <c r="H29" s="60">
-        <v>117</v>
-      </c>
-      <c r="I29" s="45">
-        <v>121</v>
+    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67">
+        <v>36224</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="71">
+        <v>5400</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="74">
+        <v>119</v>
       </c>
       <c r="J29" s="59"/>
       <c r="K29" s="15"/>
@@ -3069,14 +3026,12 @@
       <c r="M29" s="53"/>
       <c r="N29" s="53"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="65" t="s">
-        <v>145</v>
-      </c>
+      <c r="P29" s="75"/>
       <c r="Q29" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S29" s="54"/>
       <c r="T29" s="55"/>
@@ -3087,47 +3042,29 @@
       <c r="Y29" s="57"/>
     </row>
     <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
-        <v>26121</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="59">
-        <v>2640</v>
-      </c>
-      <c r="G30" s="64">
-        <v>300</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="45">
-        <v>124</v>
-      </c>
-      <c r="J30" s="59"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="65" t="s">
-        <v>146</v>
-      </c>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
       <c r="Q30" s="10">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S30" s="54"/>
       <c r="T30" s="55"/>
@@ -3137,25 +3074,49 @@
       <c r="X30" s="56"/>
       <c r="Y30" s="57"/>
     </row>
-    <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="45"/>
+    <row r="31" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="58">
+        <v>37682</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="59">
+        <v>2210</v>
+      </c>
+      <c r="G31" s="64">
+        <v>117</v>
+      </c>
+      <c r="H31" s="60">
+        <v>117</v>
+      </c>
+      <c r="I31" s="45">
+        <v>121</v>
+      </c>
       <c r="J31" s="59"/>
       <c r="K31" s="15"/>
       <c r="L31" s="40"/>
       <c r="M31" s="53"/>
       <c r="N31" s="53"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="11"/>
+      <c r="P31" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>43900</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="S31" s="54"/>
       <c r="T31" s="55"/>
       <c r="U31" s="56"/>
@@ -3164,98 +3125,219 @@
       <c r="X31" s="56"/>
       <c r="Y31" s="57"/>
     </row>
-    <row r="32" spans="1:25" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22" t="s">
+    <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58">
+        <v>39749</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="59">
+        <v>7000</v>
+      </c>
+      <c r="G32" s="64">
+        <v>129</v>
+      </c>
+      <c r="H32" s="60">
+        <v>129</v>
+      </c>
+      <c r="I32" s="45">
+        <v>129</v>
+      </c>
+      <c r="J32" s="59"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>43900</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" s="54"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="57"/>
+    </row>
+    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="67">
+        <v>26121</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="71">
+        <v>880</v>
+      </c>
+      <c r="G33" s="72">
+        <v>300</v>
+      </c>
+      <c r="H33" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="74">
+        <v>124</v>
+      </c>
+      <c r="J33" s="59"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>43900</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="54"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="57"/>
+    </row>
+    <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="57"/>
+    </row>
+    <row r="35" spans="1:25" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="11"/>
-    </row>
-    <row r="33" spans="1:17" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="25" t="s">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="11"/>
+    </row>
+    <row r="36" spans="1:25" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="17">
-        <v>24</v>
-      </c>
-      <c r="K33" s="25" t="s">
+      <c r="I36" s="26"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="1:17" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="25" t="s">
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="11"/>
+    </row>
+    <row r="37" spans="1:25" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="28">
-        <v>7</v>
-      </c>
-      <c r="K34" s="25" t="s">
+      <c r="I37" s="26"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="63">
-        <v>7</v>
-      </c>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="11"/>
-    </row>
-    <row r="35" spans="1:17" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="11"/>
+    </row>
+    <row r="38" spans="1:25" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
     </row>
     <row r="187" spans="10:10" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BMVjxI3ZkH/9RAttXAdl4Vi4ufyxk1nnQSXYSROw396eOFxJ4rtFQ+u7O5yWP8WLL26t0LxuStcujZ/B23fBVQ==" saltValue="LzFgAMqWXQyR50vPg7kcJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="daQ3ZAP90iQ0WP4NoI8/CPPyTxmkczXyy0W3WXpirXY6IUIBPe1gFtJNnp+SGDJRZeHG/b722kxUmK2PkJ/F1Q==" saltValue="m5xf7t0rBShZ4X7cu2pB7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="J1:O1048576" name="Диапазон1"/>
     <protectedRange sqref="R1:R1048576" name="Диапазон2"/>
     <protectedRange sqref="T1:T1048576" name="Диапазон3"/>
   </protectedRanges>
   <autoFilter ref="A1:R187"/>
-  <conditionalFormatting sqref="A35:X35">
+  <conditionalFormatting sqref="A38:X38">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
